--- a/Heatmap SB/deb_action/Avant un but/Tableaux/2021_2022/loc_deb_action.xlsx
+++ b/Heatmap SB/deb_action/Avant un but/Tableaux/2021_2022/loc_deb_action.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E780"/>
+  <dimension ref="A1:F780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>match_id</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -475,6 +480,9 @@
           <t>3798136</t>
         </is>
       </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -495,6 +503,9 @@
         <is>
           <t>3798136</t>
         </is>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -517,6 +528,9 @@
           <t>3798136</t>
         </is>
       </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -538,6 +552,9 @@
           <t>3798136</t>
         </is>
       </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -559,6 +576,9 @@
           <t>3798136</t>
         </is>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -580,6 +600,9 @@
           <t>3798438</t>
         </is>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -601,6 +624,9 @@
           <t>3798438</t>
         </is>
       </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -622,6 +648,9 @@
           <t>3798438</t>
         </is>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -643,6 +672,9 @@
           <t>3798408</t>
         </is>
       </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -664,6 +696,9 @@
           <t>3798320</t>
         </is>
       </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -685,6 +720,9 @@
           <t>3798320</t>
         </is>
       </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -706,6 +744,9 @@
           <t>3798320</t>
         </is>
       </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -727,6 +768,9 @@
           <t>3798161</t>
         </is>
       </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -748,6 +792,9 @@
           <t>3798161</t>
         </is>
       </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -769,6 +816,9 @@
           <t>3798161</t>
         </is>
       </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -790,6 +840,9 @@
           <t>3798093</t>
         </is>
       </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -811,6 +864,9 @@
           <t>3798093</t>
         </is>
       </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -832,6 +888,9 @@
           <t>3798093</t>
         </is>
       </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -853,6 +912,9 @@
           <t>3798377</t>
         </is>
       </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -874,6 +936,9 @@
           <t>3798377</t>
         </is>
       </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -895,6 +960,9 @@
           <t>3798377</t>
         </is>
       </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -916,6 +984,9 @@
           <t>3798377</t>
         </is>
       </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -937,6 +1008,9 @@
           <t>3798246</t>
         </is>
       </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -958,6 +1032,9 @@
           <t>3798246</t>
         </is>
       </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -979,6 +1056,9 @@
           <t>3798311</t>
         </is>
       </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1000,6 +1080,9 @@
           <t>3798311</t>
         </is>
       </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1021,6 +1104,9 @@
           <t>3798415</t>
         </is>
       </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1042,6 +1128,9 @@
           <t>3798415</t>
         </is>
       </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1063,6 +1152,9 @@
           <t>3798111</t>
         </is>
       </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1084,6 +1176,9 @@
           <t>3798111</t>
         </is>
       </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1105,6 +1200,9 @@
           <t>3798236</t>
         </is>
       </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1126,6 +1224,9 @@
           <t>3798236</t>
         </is>
       </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1147,6 +1248,9 @@
           <t>3798172</t>
         </is>
       </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1168,6 +1272,9 @@
           <t>3798172</t>
         </is>
       </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1189,6 +1296,9 @@
           <t>3798172</t>
         </is>
       </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1210,6 +1320,9 @@
           <t>3798283</t>
         </is>
       </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1231,6 +1344,9 @@
           <t>3798205</t>
         </is>
       </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1252,6 +1368,9 @@
           <t>3798168</t>
         </is>
       </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1273,6 +1392,9 @@
           <t>3798081</t>
         </is>
       </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1294,6 +1416,9 @@
           <t>3798081</t>
         </is>
       </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1315,6 +1440,9 @@
           <t>3798436</t>
         </is>
       </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1336,6 +1464,9 @@
           <t>3798436</t>
         </is>
       </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1357,6 +1488,9 @@
           <t>3798436</t>
         </is>
       </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1378,6 +1512,9 @@
           <t>3798397</t>
         </is>
       </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1399,6 +1536,9 @@
           <t>3798397</t>
         </is>
       </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1420,6 +1560,9 @@
           <t>3798354</t>
         </is>
       </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1441,6 +1584,9 @@
           <t>3798354</t>
         </is>
       </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1462,6 +1608,9 @@
           <t>3798354</t>
         </is>
       </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1483,6 +1632,9 @@
           <t>3798216</t>
         </is>
       </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1504,6 +1656,9 @@
           <t>3798202</t>
         </is>
       </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1525,6 +1680,9 @@
           <t>3798202</t>
         </is>
       </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1546,6 +1704,9 @@
           <t>3798134</t>
         </is>
       </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1567,6 +1728,9 @@
           <t>3798134</t>
         </is>
       </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1588,6 +1752,9 @@
           <t>3798134</t>
         </is>
       </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1609,6 +1776,9 @@
           <t>3798134</t>
         </is>
       </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1630,6 +1800,9 @@
           <t>3798167</t>
         </is>
       </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1651,6 +1824,9 @@
           <t>3798167</t>
         </is>
       </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1672,6 +1848,9 @@
           <t>3798177</t>
         </is>
       </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1693,6 +1872,9 @@
           <t>3798177</t>
         </is>
       </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1714,6 +1896,9 @@
           <t>3798177</t>
         </is>
       </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1735,6 +1920,9 @@
           <t>3798177</t>
         </is>
       </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1756,6 +1944,9 @@
           <t>3798177</t>
         </is>
       </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1777,6 +1968,9 @@
           <t>3798389</t>
         </is>
       </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1798,6 +1992,9 @@
           <t>3798389</t>
         </is>
       </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1819,6 +2016,9 @@
           <t>3798273</t>
         </is>
       </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1840,6 +2040,9 @@
           <t>3798238</t>
         </is>
       </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1861,6 +2064,9 @@
           <t>3798411</t>
         </is>
       </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1882,6 +2088,9 @@
           <t>3798411</t>
         </is>
       </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1903,6 +2112,9 @@
           <t>3798411</t>
         </is>
       </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1924,6 +2136,9 @@
           <t>3798255</t>
         </is>
       </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1945,6 +2160,9 @@
           <t>3798255</t>
         </is>
       </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1966,6 +2184,9 @@
           <t>3798139</t>
         </is>
       </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1987,6 +2208,9 @@
           <t>3798139</t>
         </is>
       </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2008,6 +2232,9 @@
           <t>3798139</t>
         </is>
       </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2029,6 +2256,9 @@
           <t>3798118</t>
         </is>
       </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2050,6 +2280,9 @@
           <t>3798118</t>
         </is>
       </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2071,6 +2304,9 @@
           <t>3798118</t>
         </is>
       </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2092,6 +2328,9 @@
           <t>3798276</t>
         </is>
       </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2113,6 +2352,9 @@
           <t>3798276</t>
         </is>
       </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2134,6 +2376,9 @@
           <t>3798272</t>
         </is>
       </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2155,6 +2400,9 @@
           <t>3798272</t>
         </is>
       </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2176,6 +2424,9 @@
           <t>3798210</t>
         </is>
       </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2197,6 +2448,9 @@
           <t>3798210</t>
         </is>
       </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2218,6 +2472,9 @@
           <t>3798210</t>
         </is>
       </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2239,6 +2496,9 @@
           <t>3798135</t>
         </is>
       </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2260,6 +2520,9 @@
           <t>3798135</t>
         </is>
       </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2281,6 +2544,9 @@
           <t>3798295</t>
         </is>
       </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2302,6 +2568,9 @@
           <t>3798207</t>
         </is>
       </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2323,6 +2592,9 @@
           <t>3798207</t>
         </is>
       </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2344,6 +2616,9 @@
           <t>3798262</t>
         </is>
       </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2365,6 +2640,9 @@
           <t>3798262</t>
         </is>
       </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2386,6 +2664,9 @@
           <t>3798258</t>
         </is>
       </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2407,6 +2688,9 @@
           <t>3798364</t>
         </is>
       </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2428,6 +2712,9 @@
           <t>3798364</t>
         </is>
       </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2449,6 +2736,9 @@
           <t>3798364</t>
         </is>
       </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2470,6 +2760,9 @@
           <t>3798173</t>
         </is>
       </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2491,6 +2784,9 @@
           <t>3798173</t>
         </is>
       </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2512,6 +2808,9 @@
           <t>3798338</t>
         </is>
       </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2533,6 +2832,9 @@
           <t>3798338</t>
         </is>
       </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2554,6 +2856,9 @@
           <t>3798338</t>
         </is>
       </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2575,6 +2880,9 @@
           <t>3798142</t>
         </is>
       </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2596,6 +2904,9 @@
           <t>3798084</t>
         </is>
       </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2617,6 +2928,9 @@
           <t>3798084</t>
         </is>
       </c>
+      <c r="F104" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2638,6 +2952,9 @@
           <t>3798084</t>
         </is>
       </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2659,6 +2976,9 @@
           <t>3798084</t>
         </is>
       </c>
+      <c r="F106" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2680,6 +3000,9 @@
           <t>3798084</t>
         </is>
       </c>
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2701,6 +3024,9 @@
           <t>3798327</t>
         </is>
       </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2722,6 +3048,9 @@
           <t>3800619</t>
         </is>
       </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2743,6 +3072,9 @@
           <t>3798195</t>
         </is>
       </c>
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2764,6 +3096,9 @@
           <t>3798321</t>
         </is>
       </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2785,6 +3120,9 @@
           <t>3798321</t>
         </is>
       </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2806,6 +3144,9 @@
           <t>3798249</t>
         </is>
       </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2827,6 +3168,9 @@
           <t>3798249</t>
         </is>
       </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2848,6 +3192,9 @@
           <t>3798225</t>
         </is>
       </c>
+      <c r="F115" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2869,6 +3216,9 @@
           <t>3798204</t>
         </is>
       </c>
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2890,6 +3240,9 @@
           <t>3798379</t>
         </is>
       </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2911,6 +3264,9 @@
           <t>3798379</t>
         </is>
       </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2932,6 +3288,9 @@
           <t>3798105</t>
         </is>
       </c>
+      <c r="F119" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2953,6 +3312,9 @@
           <t>3798105</t>
         </is>
       </c>
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2974,6 +3336,9 @@
           <t>3798105</t>
         </is>
       </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2995,6 +3360,9 @@
           <t>3798105</t>
         </is>
       </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3016,6 +3384,9 @@
           <t>3798179</t>
         </is>
       </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3037,6 +3408,9 @@
           <t>3798179</t>
         </is>
       </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3058,6 +3432,9 @@
           <t>3798179</t>
         </is>
       </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3079,6 +3456,9 @@
           <t>3798117</t>
         </is>
       </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3100,6 +3480,9 @@
           <t>3798432</t>
         </is>
       </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3121,6 +3504,9 @@
           <t>3798231</t>
         </is>
       </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3142,6 +3528,9 @@
           <t>3798231</t>
         </is>
       </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3163,6 +3552,9 @@
           <t>3798231</t>
         </is>
       </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3184,6 +3576,9 @@
           <t>3798231</t>
         </is>
       </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3205,6 +3600,9 @@
           <t>3798230</t>
         </is>
       </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3226,6 +3624,9 @@
           <t>3798146</t>
         </is>
       </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3247,6 +3648,9 @@
           <t>3798146</t>
         </is>
       </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3268,6 +3672,9 @@
           <t>3798146</t>
         </is>
       </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3289,6 +3696,9 @@
           <t>3798372</t>
         </is>
       </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3310,6 +3720,9 @@
           <t>3798342</t>
         </is>
       </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3331,6 +3744,9 @@
           <t>3798342</t>
         </is>
       </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3352,6 +3768,9 @@
           <t>3798342</t>
         </is>
       </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3373,6 +3792,9 @@
           <t>3798253</t>
         </is>
       </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3394,6 +3816,9 @@
           <t>3798253</t>
         </is>
       </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3415,6 +3840,9 @@
           <t>3798253</t>
         </is>
       </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3436,6 +3864,9 @@
           <t>3798068</t>
         </is>
       </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3457,6 +3888,9 @@
           <t>3798068</t>
         </is>
       </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3478,6 +3912,9 @@
           <t>3798068</t>
         </is>
       </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3499,6 +3936,9 @@
           <t>3798175</t>
         </is>
       </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3520,6 +3960,9 @@
           <t>3798375</t>
         </is>
       </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3541,6 +3984,9 @@
           <t>3798375</t>
         </is>
       </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3562,6 +4008,9 @@
           <t>3798369</t>
         </is>
       </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3583,6 +4032,9 @@
           <t>3798203</t>
         </is>
       </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3604,6 +4056,9 @@
           <t>3798203</t>
         </is>
       </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3625,6 +4080,9 @@
           <t>3798182</t>
         </is>
       </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3646,6 +4104,9 @@
           <t>3798182</t>
         </is>
       </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3667,6 +4128,9 @@
           <t>3798182</t>
         </is>
       </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3688,6 +4152,9 @@
           <t>3798182</t>
         </is>
       </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3709,6 +4176,9 @@
           <t>3798318</t>
         </is>
       </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3730,6 +4200,9 @@
           <t>3798241</t>
         </is>
       </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3751,6 +4224,9 @@
           <t>3798241</t>
         </is>
       </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3772,6 +4248,9 @@
           <t>3798384</t>
         </is>
       </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3793,6 +4272,9 @@
           <t>3798384</t>
         </is>
       </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3814,6 +4296,9 @@
           <t>3798384</t>
         </is>
       </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3835,6 +4320,9 @@
           <t>3798384</t>
         </is>
       </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3856,6 +4344,9 @@
           <t>3798190</t>
         </is>
       </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3877,6 +4368,9 @@
           <t>3798429</t>
         </is>
       </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3898,6 +4392,9 @@
           <t>3798341</t>
         </is>
       </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -3919,6 +4416,9 @@
           <t>3798341</t>
         </is>
       </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3940,6 +4440,9 @@
           <t>3798341</t>
         </is>
       </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3961,6 +4464,9 @@
           <t>3798341</t>
         </is>
       </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -3982,6 +4488,9 @@
           <t>3798341</t>
         </is>
       </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4003,6 +4512,9 @@
           <t>3798341</t>
         </is>
       </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4024,6 +4536,9 @@
           <t>3798223</t>
         </is>
       </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4045,6 +4560,9 @@
           <t>3798223</t>
         </is>
       </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4066,6 +4584,9 @@
           <t>3798133</t>
         </is>
       </c>
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4087,6 +4608,9 @@
           <t>3798133</t>
         </is>
       </c>
+      <c r="F174" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4108,6 +4632,9 @@
           <t>3798104</t>
         </is>
       </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4129,6 +4656,9 @@
           <t>3798270</t>
         </is>
       </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4150,6 +4680,9 @@
           <t>3798331</t>
         </is>
       </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4171,6 +4704,9 @@
           <t>3798427</t>
         </is>
       </c>
+      <c r="F178" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4192,6 +4728,9 @@
           <t>3798427</t>
         </is>
       </c>
+      <c r="F179" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4213,6 +4752,9 @@
           <t>3798427</t>
         </is>
       </c>
+      <c r="F180" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4234,6 +4776,9 @@
           <t>3798427</t>
         </is>
       </c>
+      <c r="F181" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4255,6 +4800,9 @@
           <t>3798427</t>
         </is>
       </c>
+      <c r="F182" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4276,6 +4824,9 @@
           <t>3798138</t>
         </is>
       </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4297,6 +4848,9 @@
           <t>3798350</t>
         </is>
       </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4318,6 +4872,9 @@
           <t>3798350</t>
         </is>
       </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4339,6 +4896,9 @@
           <t>3798304</t>
         </is>
       </c>
+      <c r="F186" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4360,6 +4920,9 @@
           <t>3798144</t>
         </is>
       </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4381,6 +4944,9 @@
           <t>3798144</t>
         </is>
       </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4402,6 +4968,9 @@
           <t>3798144</t>
         </is>
       </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4423,6 +4992,9 @@
           <t>3798101</t>
         </is>
       </c>
+      <c r="F190" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4444,6 +5016,9 @@
           <t>3798101</t>
         </is>
       </c>
+      <c r="F191" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4465,6 +5040,9 @@
           <t>3798101</t>
         </is>
       </c>
+      <c r="F192" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4486,6 +5064,9 @@
           <t>3798101</t>
         </is>
       </c>
+      <c r="F193" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4507,6 +5088,9 @@
           <t>3798185</t>
         </is>
       </c>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4528,6 +5112,9 @@
           <t>3798294</t>
         </is>
       </c>
+      <c r="F195" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4549,6 +5136,9 @@
           <t>3798065</t>
         </is>
       </c>
+      <c r="F196" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4570,6 +5160,9 @@
           <t>3798065</t>
         </is>
       </c>
+      <c r="F197" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4591,6 +5184,9 @@
           <t>3798065</t>
         </is>
       </c>
+      <c r="F198" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -4612,6 +5208,9 @@
           <t>3798374</t>
         </is>
       </c>
+      <c r="F199" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4633,6 +5232,9 @@
           <t>3798374</t>
         </is>
       </c>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4654,6 +5256,9 @@
           <t>3798374</t>
         </is>
       </c>
+      <c r="F201" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4675,6 +5280,9 @@
           <t>3798374</t>
         </is>
       </c>
+      <c r="F202" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4696,6 +5304,9 @@
           <t>3798374</t>
         </is>
       </c>
+      <c r="F203" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4717,6 +5328,9 @@
           <t>3798110</t>
         </is>
       </c>
+      <c r="F204" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -4738,6 +5352,9 @@
           <t>3798110</t>
         </is>
       </c>
+      <c r="F205" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4759,6 +5376,9 @@
           <t>3798113</t>
         </is>
       </c>
+      <c r="F206" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4780,6 +5400,9 @@
           <t>3798113</t>
         </is>
       </c>
+      <c r="F207" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -4801,6 +5424,9 @@
           <t>3798200</t>
         </is>
       </c>
+      <c r="F208" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4822,6 +5448,9 @@
           <t>3798200</t>
         </is>
       </c>
+      <c r="F209" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -4843,6 +5472,9 @@
           <t>3798137</t>
         </is>
       </c>
+      <c r="F210" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -4864,6 +5496,9 @@
           <t>3798085</t>
         </is>
       </c>
+      <c r="F211" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -4885,6 +5520,9 @@
           <t>3798085</t>
         </is>
       </c>
+      <c r="F212" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -4906,6 +5544,9 @@
           <t>3798089</t>
         </is>
       </c>
+      <c r="F213" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -4927,6 +5568,9 @@
           <t>3798089</t>
         </is>
       </c>
+      <c r="F214" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -4948,6 +5592,9 @@
           <t>3798089</t>
         </is>
       </c>
+      <c r="F215" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -4969,6 +5616,9 @@
           <t>3798089</t>
         </is>
       </c>
+      <c r="F216" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -4990,6 +5640,9 @@
           <t>3798103</t>
         </is>
       </c>
+      <c r="F217" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5011,6 +5664,9 @@
           <t>3798103</t>
         </is>
       </c>
+      <c r="F218" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5032,6 +5688,9 @@
           <t>3798263</t>
         </is>
       </c>
+      <c r="F219" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5053,6 +5712,9 @@
           <t>3798263</t>
         </is>
       </c>
+      <c r="F220" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5074,6 +5736,9 @@
           <t>3798263</t>
         </is>
       </c>
+      <c r="F221" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5095,6 +5760,9 @@
           <t>3798340</t>
         </is>
       </c>
+      <c r="F222" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -5116,6 +5784,9 @@
           <t>3798386</t>
         </is>
       </c>
+      <c r="F223" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -5137,6 +5808,9 @@
           <t>3798106</t>
         </is>
       </c>
+      <c r="F224" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -5158,6 +5832,9 @@
           <t>3798106</t>
         </is>
       </c>
+      <c r="F225" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -5179,6 +5856,9 @@
           <t>3798420</t>
         </is>
       </c>
+      <c r="F226" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -5200,6 +5880,9 @@
           <t>3798420</t>
         </is>
       </c>
+      <c r="F227" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -5221,6 +5904,9 @@
           <t>3798115</t>
         </is>
       </c>
+      <c r="F228" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -5242,6 +5928,9 @@
           <t>3798119</t>
         </is>
       </c>
+      <c r="F229" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -5263,6 +5952,9 @@
           <t>3798119</t>
         </is>
       </c>
+      <c r="F230" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -5284,6 +5976,9 @@
           <t>3798119</t>
         </is>
       </c>
+      <c r="F231" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -5305,6 +6000,9 @@
           <t>3798102</t>
         </is>
       </c>
+      <c r="F232" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -5326,6 +6024,9 @@
           <t>3798102</t>
         </is>
       </c>
+      <c r="F233" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -5347,6 +6048,9 @@
           <t>3798102</t>
         </is>
       </c>
+      <c r="F234" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -5368,6 +6072,9 @@
           <t>3798215</t>
         </is>
       </c>
+      <c r="F235" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -5389,6 +6096,9 @@
           <t>3798076</t>
         </is>
       </c>
+      <c r="F236" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -5410,6 +6120,9 @@
           <t>3798361</t>
         </is>
       </c>
+      <c r="F237" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -5431,6 +6144,9 @@
           <t>3798361</t>
         </is>
       </c>
+      <c r="F238" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -5452,6 +6168,9 @@
           <t>3798351</t>
         </is>
       </c>
+      <c r="F239" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -5473,6 +6192,9 @@
           <t>3798351</t>
         </is>
       </c>
+      <c r="F240" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -5494,6 +6216,9 @@
           <t>3798351</t>
         </is>
       </c>
+      <c r="F241" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -5515,6 +6240,9 @@
           <t>3798351</t>
         </is>
       </c>
+      <c r="F242" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -5536,6 +6264,9 @@
           <t>3798414</t>
         </is>
       </c>
+      <c r="F243" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -5557,6 +6288,9 @@
           <t>3798423</t>
         </is>
       </c>
+      <c r="F244" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -5578,6 +6312,9 @@
           <t>3798376</t>
         </is>
       </c>
+      <c r="F245" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -5599,6 +6336,9 @@
           <t>3798376</t>
         </is>
       </c>
+      <c r="F246" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -5620,6 +6360,9 @@
           <t>3798376</t>
         </is>
       </c>
+      <c r="F247" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -5641,6 +6384,9 @@
           <t>3798325</t>
         </is>
       </c>
+      <c r="F248" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -5662,6 +6408,9 @@
           <t>3798228</t>
         </is>
       </c>
+      <c r="F249" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -5683,6 +6432,9 @@
           <t>3798233</t>
         </is>
       </c>
+      <c r="F250" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -5704,6 +6456,9 @@
           <t>3798233</t>
         </is>
       </c>
+      <c r="F251" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -5725,6 +6480,9 @@
           <t>3798233</t>
         </is>
       </c>
+      <c r="F252" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -5746,6 +6504,9 @@
           <t>3798233</t>
         </is>
       </c>
+      <c r="F253" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -5767,6 +6528,9 @@
           <t>3798310</t>
         </is>
       </c>
+      <c r="F254" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -5788,6 +6552,9 @@
           <t>3798310</t>
         </is>
       </c>
+      <c r="F255" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -5809,6 +6576,9 @@
           <t>3798178</t>
         </is>
       </c>
+      <c r="F256" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -5830,6 +6600,9 @@
           <t>3798178</t>
         </is>
       </c>
+      <c r="F257" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -5851,6 +6624,9 @@
           <t>3798178</t>
         </is>
       </c>
+      <c r="F258" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -5872,6 +6648,9 @@
           <t>3798178</t>
         </is>
       </c>
+      <c r="F259" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -5893,6 +6672,9 @@
           <t>3798178</t>
         </is>
       </c>
+      <c r="F260" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -5914,6 +6696,9 @@
           <t>3798154</t>
         </is>
       </c>
+      <c r="F261" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -5935,6 +6720,9 @@
           <t>3798154</t>
         </is>
       </c>
+      <c r="F262" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -5956,6 +6744,9 @@
           <t>3798154</t>
         </is>
       </c>
+      <c r="F263" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -5977,6 +6768,9 @@
           <t>3798237</t>
         </is>
       </c>
+      <c r="F264" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -5998,6 +6792,9 @@
           <t>3798237</t>
         </is>
       </c>
+      <c r="F265" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -6019,6 +6816,9 @@
           <t>3798237</t>
         </is>
       </c>
+      <c r="F266" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -6040,6 +6840,9 @@
           <t>3798290</t>
         </is>
       </c>
+      <c r="F267" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -6061,6 +6864,9 @@
           <t>3798290</t>
         </is>
       </c>
+      <c r="F268" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -6082,6 +6888,9 @@
           <t>3798163</t>
         </is>
       </c>
+      <c r="F269" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -6103,6 +6912,9 @@
           <t>3798336</t>
         </is>
       </c>
+      <c r="F270" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -6124,6 +6936,9 @@
           <t>3798282</t>
         </is>
       </c>
+      <c r="F271" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -6145,6 +6960,9 @@
           <t>3798282</t>
         </is>
       </c>
+      <c r="F272" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -6166,6 +6984,9 @@
           <t>3798282</t>
         </is>
       </c>
+      <c r="F273" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -6187,6 +7008,9 @@
           <t>3798282</t>
         </is>
       </c>
+      <c r="F274" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -6208,6 +7032,9 @@
           <t>3798365</t>
         </is>
       </c>
+      <c r="F275" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -6229,6 +7056,9 @@
           <t>3798365</t>
         </is>
       </c>
+      <c r="F276" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -6250,6 +7080,9 @@
           <t>3798266</t>
         </is>
       </c>
+      <c r="F277" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -6271,6 +7104,9 @@
           <t>3798274</t>
         </is>
       </c>
+      <c r="F278" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -6292,6 +7128,9 @@
           <t>3798274</t>
         </is>
       </c>
+      <c r="F279" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -6313,6 +7152,9 @@
           <t>3798274</t>
         </is>
       </c>
+      <c r="F280" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -6334,6 +7176,9 @@
           <t>3798155</t>
         </is>
       </c>
+      <c r="F281" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -6355,6 +7200,9 @@
           <t>3798155</t>
         </is>
       </c>
+      <c r="F282" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -6376,6 +7224,9 @@
           <t>3798155</t>
         </is>
       </c>
+      <c r="F283" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -6397,6 +7248,9 @@
           <t>3798155</t>
         </is>
       </c>
+      <c r="F284" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -6418,6 +7272,9 @@
           <t>3798244</t>
         </is>
       </c>
+      <c r="F285" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -6439,6 +7296,9 @@
           <t>3798244</t>
         </is>
       </c>
+      <c r="F286" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -6460,6 +7320,9 @@
           <t>3798062</t>
         </is>
       </c>
+      <c r="F287" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -6481,6 +7344,9 @@
           <t>3798437</t>
         </is>
       </c>
+      <c r="F288" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -6502,6 +7368,9 @@
           <t>3798437</t>
         </is>
       </c>
+      <c r="F289" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -6523,6 +7392,9 @@
           <t>3798437</t>
         </is>
       </c>
+      <c r="F290" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -6544,6 +7416,9 @@
           <t>3798437</t>
         </is>
       </c>
+      <c r="F291" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -6565,6 +7440,9 @@
           <t>3798395</t>
         </is>
       </c>
+      <c r="F292" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -6586,6 +7464,9 @@
           <t>3798189</t>
         </is>
       </c>
+      <c r="F293" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -6607,6 +7488,9 @@
           <t>3798097</t>
         </is>
       </c>
+      <c r="F294" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -6628,6 +7512,9 @@
           <t>3798151</t>
         </is>
       </c>
+      <c r="F295" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -6649,6 +7536,9 @@
           <t>3798151</t>
         </is>
       </c>
+      <c r="F296" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -6670,6 +7560,9 @@
           <t>3798151</t>
         </is>
       </c>
+      <c r="F297" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -6691,6 +7584,9 @@
           <t>3798151</t>
         </is>
       </c>
+      <c r="F298" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -6712,6 +7608,9 @@
           <t>3798079</t>
         </is>
       </c>
+      <c r="F299" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -6733,6 +7632,9 @@
           <t>3798079</t>
         </is>
       </c>
+      <c r="F300" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -6754,6 +7656,9 @@
           <t>3798212</t>
         </is>
       </c>
+      <c r="F301" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -6775,6 +7680,9 @@
           <t>3798212</t>
         </is>
       </c>
+      <c r="F302" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -6796,6 +7704,9 @@
           <t>3798075</t>
         </is>
       </c>
+      <c r="F303" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -6817,6 +7728,9 @@
           <t>3798075</t>
         </is>
       </c>
+      <c r="F304" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -6838,6 +7752,9 @@
           <t>3798075</t>
         </is>
       </c>
+      <c r="F305" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -6859,6 +7776,9 @@
           <t>3798235</t>
         </is>
       </c>
+      <c r="F306" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -6880,6 +7800,9 @@
           <t>3798235</t>
         </is>
       </c>
+      <c r="F307" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -6901,6 +7824,9 @@
           <t>3798157</t>
         </is>
       </c>
+      <c r="F308" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -6922,6 +7848,9 @@
           <t>3798157</t>
         </is>
       </c>
+      <c r="F309" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -6943,6 +7872,9 @@
           <t>3798157</t>
         </is>
       </c>
+      <c r="F310" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -6964,6 +7896,9 @@
           <t>3798157</t>
         </is>
       </c>
+      <c r="F311" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -6985,6 +7920,9 @@
           <t>3800618</t>
         </is>
       </c>
+      <c r="F312" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -7006,6 +7944,9 @@
           <t>3800618</t>
         </is>
       </c>
+      <c r="F313" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -7027,6 +7968,9 @@
           <t>3798284</t>
         </is>
       </c>
+      <c r="F314" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -7048,6 +7992,9 @@
           <t>3798284</t>
         </is>
       </c>
+      <c r="F315" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -7069,6 +8016,9 @@
           <t>3798418</t>
         </is>
       </c>
+      <c r="F316" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -7090,6 +8040,9 @@
           <t>3798418</t>
         </is>
       </c>
+      <c r="F317" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -7111,6 +8064,9 @@
           <t>3798418</t>
         </is>
       </c>
+      <c r="F318" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -7132,6 +8088,9 @@
           <t>3798240</t>
         </is>
       </c>
+      <c r="F319" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -7153,6 +8112,9 @@
           <t>3798240</t>
         </is>
       </c>
+      <c r="F320" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -7174,6 +8136,9 @@
           <t>3798240</t>
         </is>
       </c>
+      <c r="F321" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -7195,6 +8160,9 @@
           <t>3798426</t>
         </is>
       </c>
+      <c r="F322" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -7216,6 +8184,9 @@
           <t>3798426</t>
         </is>
       </c>
+      <c r="F323" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -7237,6 +8208,9 @@
           <t>3798426</t>
         </is>
       </c>
+      <c r="F324" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -7258,6 +8232,9 @@
           <t>3798426</t>
         </is>
       </c>
+      <c r="F325" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -7279,6 +8256,9 @@
           <t>3798378</t>
         </is>
       </c>
+      <c r="F326" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -7300,6 +8280,9 @@
           <t>3798378</t>
         </is>
       </c>
+      <c r="F327" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -7321,6 +8304,9 @@
           <t>3798378</t>
         </is>
       </c>
+      <c r="F328" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -7342,6 +8328,9 @@
           <t>3798416</t>
         </is>
       </c>
+      <c r="F329" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -7363,6 +8352,9 @@
           <t>3798366</t>
         </is>
       </c>
+      <c r="F330" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -7384,6 +8376,9 @@
           <t>3798366</t>
         </is>
       </c>
+      <c r="F331" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -7405,6 +8400,9 @@
           <t>3798366</t>
         </is>
       </c>
+      <c r="F332" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -7426,6 +8424,9 @@
           <t>3798407</t>
         </is>
       </c>
+      <c r="F333" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -7447,6 +8448,9 @@
           <t>3798407</t>
         </is>
       </c>
+      <c r="F334" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -7468,6 +8472,9 @@
           <t>3798387</t>
         </is>
       </c>
+      <c r="F335" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -7489,6 +8496,9 @@
           <t>3798387</t>
         </is>
       </c>
+      <c r="F336" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -7510,6 +8520,9 @@
           <t>3798387</t>
         </is>
       </c>
+      <c r="F337" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -7531,6 +8544,9 @@
           <t>3798387</t>
         </is>
       </c>
+      <c r="F338" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -7552,6 +8568,9 @@
           <t>3798387</t>
         </is>
       </c>
+      <c r="F339" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -7573,6 +8592,9 @@
           <t>3798387</t>
         </is>
       </c>
+      <c r="F340" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -7594,6 +8616,9 @@
           <t>3798405</t>
         </is>
       </c>
+      <c r="F341" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -7615,6 +8640,9 @@
           <t>3798405</t>
         </is>
       </c>
+      <c r="F342" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -7636,6 +8664,9 @@
           <t>3798405</t>
         </is>
       </c>
+      <c r="F343" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -7657,6 +8688,9 @@
           <t>3798370</t>
         </is>
       </c>
+      <c r="F344" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -7678,6 +8712,9 @@
           <t>3798413</t>
         </is>
       </c>
+      <c r="F345" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -7699,6 +8736,9 @@
           <t>3798413</t>
         </is>
       </c>
+      <c r="F346" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -7720,6 +8760,9 @@
           <t>3798413</t>
         </is>
       </c>
+      <c r="F347" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -7741,6 +8784,9 @@
           <t>3798430</t>
         </is>
       </c>
+      <c r="F348" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -7762,6 +8808,9 @@
           <t>3798382</t>
         </is>
       </c>
+      <c r="F349" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -7783,6 +8832,9 @@
           <t>3798367</t>
         </is>
       </c>
+      <c r="F350" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -7804,6 +8856,9 @@
           <t>3798367</t>
         </is>
       </c>
+      <c r="F351" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -7825,6 +8880,9 @@
           <t>3798367</t>
         </is>
       </c>
+      <c r="F352" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -7846,6 +8904,9 @@
           <t>3798367</t>
         </is>
       </c>
+      <c r="F353" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -7867,6 +8928,9 @@
           <t>3798380</t>
         </is>
       </c>
+      <c r="F354" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -7888,6 +8952,9 @@
           <t>3798380</t>
         </is>
       </c>
+      <c r="F355" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -7909,6 +8976,9 @@
           <t>3798391</t>
         </is>
       </c>
+      <c r="F356" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -7930,6 +9000,9 @@
           <t>3798424</t>
         </is>
       </c>
+      <c r="F357" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -7951,6 +9024,9 @@
           <t>3798424</t>
         </is>
       </c>
+      <c r="F358" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -7972,6 +9048,9 @@
           <t>3798424</t>
         </is>
       </c>
+      <c r="F359" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -7993,6 +9072,9 @@
           <t>3798424</t>
         </is>
       </c>
+      <c r="F360" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -8014,6 +9096,9 @@
           <t>3798410</t>
         </is>
       </c>
+      <c r="F361" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -8035,6 +9120,9 @@
           <t>3798410</t>
         </is>
       </c>
+      <c r="F362" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -8056,6 +9144,9 @@
           <t>3798410</t>
         </is>
       </c>
+      <c r="F363" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -8077,6 +9168,9 @@
           <t>3798410</t>
         </is>
       </c>
+      <c r="F364" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -8098,6 +9192,9 @@
           <t>3798410</t>
         </is>
       </c>
+      <c r="F365" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -8119,6 +9216,9 @@
           <t>3798409</t>
         </is>
       </c>
+      <c r="F366" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -8140,6 +9240,9 @@
           <t>3798409</t>
         </is>
       </c>
+      <c r="F367" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -8161,6 +9264,9 @@
           <t>3798402</t>
         </is>
       </c>
+      <c r="F368" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -8182,6 +9288,9 @@
           <t>3798402</t>
         </is>
       </c>
+      <c r="F369" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -8203,6 +9312,9 @@
           <t>3798402</t>
         </is>
       </c>
+      <c r="F370" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -8224,6 +9336,9 @@
           <t>3798399</t>
         </is>
       </c>
+      <c r="F371" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -8245,6 +9360,9 @@
           <t>3798399</t>
         </is>
       </c>
+      <c r="F372" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -8266,6 +9384,9 @@
           <t>3798399</t>
         </is>
       </c>
+      <c r="F373" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -8287,6 +9408,9 @@
           <t>3798399</t>
         </is>
       </c>
+      <c r="F374" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -8308,6 +9432,9 @@
           <t>3798406</t>
         </is>
       </c>
+      <c r="F375" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -8329,6 +9456,9 @@
           <t>3798406</t>
         </is>
       </c>
+      <c r="F376" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -8350,6 +9480,9 @@
           <t>3798406</t>
         </is>
       </c>
+      <c r="F377" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -8371,6 +9504,9 @@
           <t>3798406</t>
         </is>
       </c>
+      <c r="F378" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -8392,6 +9528,9 @@
           <t>3798385</t>
         </is>
       </c>
+      <c r="F379" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -8413,6 +9552,9 @@
           <t>3798385</t>
         </is>
       </c>
+      <c r="F380" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -8434,6 +9576,9 @@
           <t>3798385</t>
         </is>
       </c>
+      <c r="F381" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -8455,6 +9600,9 @@
           <t>3798422</t>
         </is>
       </c>
+      <c r="F382" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -8476,6 +9624,9 @@
           <t>3798422</t>
         </is>
       </c>
+      <c r="F383" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -8497,6 +9648,9 @@
           <t>3798422</t>
         </is>
       </c>
+      <c r="F384" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -8518,6 +9672,9 @@
           <t>3798419</t>
         </is>
       </c>
+      <c r="F385" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -8539,6 +9696,9 @@
           <t>3798419</t>
         </is>
       </c>
+      <c r="F386" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -8560,6 +9720,9 @@
           <t>3798419</t>
         </is>
       </c>
+      <c r="F387" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -8581,6 +9744,9 @@
           <t>3798419</t>
         </is>
       </c>
+      <c r="F388" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -8602,6 +9768,9 @@
           <t>3798419</t>
         </is>
       </c>
+      <c r="F389" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -8623,6 +9792,9 @@
           <t>3798392</t>
         </is>
       </c>
+      <c r="F390" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -8644,6 +9816,9 @@
           <t>3798392</t>
         </is>
       </c>
+      <c r="F391" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -8665,6 +9840,9 @@
           <t>3798392</t>
         </is>
       </c>
+      <c r="F392" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -8686,6 +9864,9 @@
           <t>3798392</t>
         </is>
       </c>
+      <c r="F393" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -8707,6 +9888,9 @@
           <t>3798291</t>
         </is>
       </c>
+      <c r="F394" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -8728,6 +9912,9 @@
           <t>3798291</t>
         </is>
       </c>
+      <c r="F395" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -8749,6 +9936,9 @@
           <t>3798291</t>
         </is>
       </c>
+      <c r="F396" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -8770,6 +9960,9 @@
           <t>3798291</t>
         </is>
       </c>
+      <c r="F397" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -8791,6 +9984,9 @@
           <t>3798346</t>
         </is>
       </c>
+      <c r="F398" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -8812,6 +10008,9 @@
           <t>3798324</t>
         </is>
       </c>
+      <c r="F399" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -8833,6 +10032,9 @@
           <t>3798324</t>
         </is>
       </c>
+      <c r="F400" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -8854,6 +10056,9 @@
           <t>3798324</t>
         </is>
       </c>
+      <c r="F401" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -8875,6 +10080,9 @@
           <t>3798281</t>
         </is>
       </c>
+      <c r="F402" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -8896,6 +10104,9 @@
           <t>3798293</t>
         </is>
       </c>
+      <c r="F403" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -8917,6 +10128,9 @@
           <t>3798293</t>
         </is>
       </c>
+      <c r="F404" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -8938,6 +10152,9 @@
           <t>3798343</t>
         </is>
       </c>
+      <c r="F405" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -8959,6 +10176,9 @@
           <t>3798343</t>
         </is>
       </c>
+      <c r="F406" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -8980,6 +10200,9 @@
           <t>3798343</t>
         </is>
       </c>
+      <c r="F407" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -9001,6 +10224,9 @@
           <t>3798343</t>
         </is>
       </c>
+      <c r="F408" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -9022,6 +10248,9 @@
           <t>3798299</t>
         </is>
       </c>
+      <c r="F409" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -9043,6 +10272,9 @@
           <t>3798299</t>
         </is>
       </c>
+      <c r="F410" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -9064,6 +10296,9 @@
           <t>3798334</t>
         </is>
       </c>
+      <c r="F411" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -9085,6 +10320,9 @@
           <t>3798334</t>
         </is>
       </c>
+      <c r="F412" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -9106,6 +10344,9 @@
           <t>3798334</t>
         </is>
       </c>
+      <c r="F413" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -9127,6 +10368,9 @@
           <t>3798313</t>
         </is>
       </c>
+      <c r="F414" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -9148,6 +10392,9 @@
           <t>3798316</t>
         </is>
       </c>
+      <c r="F415" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -9169,6 +10416,9 @@
           <t>3798280</t>
         </is>
       </c>
+      <c r="F416" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -9190,6 +10440,9 @@
           <t>3798280</t>
         </is>
       </c>
+      <c r="F417" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -9211,6 +10464,9 @@
           <t>3798280</t>
         </is>
       </c>
+      <c r="F418" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -9232,6 +10488,9 @@
           <t>3798349</t>
         </is>
       </c>
+      <c r="F419" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -9253,6 +10512,9 @@
           <t>3798349</t>
         </is>
       </c>
+      <c r="F420" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -9274,6 +10536,9 @@
           <t>3798329</t>
         </is>
       </c>
+      <c r="F421" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -9295,6 +10560,9 @@
           <t>3798329</t>
         </is>
       </c>
+      <c r="F422" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -9316,6 +10584,9 @@
           <t>3798329</t>
         </is>
       </c>
+      <c r="F423" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -9337,6 +10608,9 @@
           <t>3798322</t>
         </is>
       </c>
+      <c r="F424" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -9358,6 +10632,9 @@
           <t>3798322</t>
         </is>
       </c>
+      <c r="F425" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -9379,6 +10656,9 @@
           <t>3798322</t>
         </is>
       </c>
+      <c r="F426" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -9400,6 +10680,9 @@
           <t>3798322</t>
         </is>
       </c>
+      <c r="F427" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -9421,6 +10704,9 @@
           <t>3798322</t>
         </is>
       </c>
+      <c r="F428" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -9442,6 +10728,9 @@
           <t>3798289</t>
         </is>
       </c>
+      <c r="F429" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -9463,6 +10752,9 @@
           <t>3798286</t>
         </is>
       </c>
+      <c r="F430" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -9484,6 +10776,9 @@
           <t>3798285</t>
         </is>
       </c>
+      <c r="F431" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -9505,6 +10800,9 @@
           <t>3798285</t>
         </is>
       </c>
+      <c r="F432" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -9526,6 +10824,9 @@
           <t>3798326</t>
         </is>
       </c>
+      <c r="F433" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -9547,6 +10848,9 @@
           <t>3798353</t>
         </is>
       </c>
+      <c r="F434" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -9568,6 +10872,9 @@
           <t>3798353</t>
         </is>
       </c>
+      <c r="F435" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -9589,6 +10896,9 @@
           <t>3798353</t>
         </is>
       </c>
+      <c r="F436" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -9610,6 +10920,9 @@
           <t>3798330</t>
         </is>
       </c>
+      <c r="F437" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -9631,6 +10944,9 @@
           <t>3798330</t>
         </is>
       </c>
+      <c r="F438" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -9652,6 +10968,9 @@
           <t>3798227</t>
         </is>
       </c>
+      <c r="F439" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -9673,6 +10992,9 @@
           <t>3798227</t>
         </is>
       </c>
+      <c r="F440" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -9694,6 +11016,9 @@
           <t>3798227</t>
         </is>
       </c>
+      <c r="F441" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -9715,6 +11040,9 @@
           <t>3798234</t>
         </is>
       </c>
+      <c r="F442" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -9736,6 +11064,9 @@
           <t>3798234</t>
         </is>
       </c>
+      <c r="F443" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -9757,6 +11088,9 @@
           <t>3798234</t>
         </is>
       </c>
+      <c r="F444" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -9778,6 +11112,9 @@
           <t>3798268</t>
         </is>
       </c>
+      <c r="F445" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -9799,6 +11136,9 @@
           <t>3798275</t>
         </is>
       </c>
+      <c r="F446" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -9820,6 +11160,9 @@
           <t>3798275</t>
         </is>
       </c>
+      <c r="F447" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -9841,6 +11184,9 @@
           <t>3798220</t>
         </is>
       </c>
+      <c r="F448" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -9862,6 +11208,9 @@
           <t>3798220</t>
         </is>
       </c>
+      <c r="F449" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -9883,6 +11232,9 @@
           <t>3798214</t>
         </is>
       </c>
+      <c r="F450" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -9904,6 +11256,9 @@
           <t>3798219</t>
         </is>
       </c>
+      <c r="F451" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -9925,6 +11280,9 @@
           <t>3798219</t>
         </is>
       </c>
+      <c r="F452" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -9946,6 +11304,9 @@
           <t>3798219</t>
         </is>
       </c>
+      <c r="F453" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -9967,6 +11328,9 @@
           <t>3798219</t>
         </is>
       </c>
+      <c r="F454" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -9988,6 +11352,9 @@
           <t>3798211</t>
         </is>
       </c>
+      <c r="F455" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -10009,6 +11376,9 @@
           <t>3798211</t>
         </is>
       </c>
+      <c r="F456" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -10030,6 +11400,9 @@
           <t>3798213</t>
         </is>
       </c>
+      <c r="F457" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -10051,6 +11424,9 @@
           <t>3798247</t>
         </is>
       </c>
+      <c r="F458" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -10072,6 +11448,9 @@
           <t>3798247</t>
         </is>
       </c>
+      <c r="F459" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -10093,6 +11472,9 @@
           <t>3798247</t>
         </is>
       </c>
+      <c r="F460" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -10114,6 +11496,9 @@
           <t>3798247</t>
         </is>
       </c>
+      <c r="F461" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -10135,6 +11520,9 @@
           <t>3798247</t>
         </is>
       </c>
+      <c r="F462" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -10156,6 +11544,9 @@
           <t>3798277</t>
         </is>
       </c>
+      <c r="F463" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -10177,6 +11568,9 @@
           <t>3798277</t>
         </is>
       </c>
+      <c r="F464" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -10198,6 +11592,9 @@
           <t>3798277</t>
         </is>
       </c>
+      <c r="F465" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -10219,6 +11616,9 @@
           <t>3798226</t>
         </is>
       </c>
+      <c r="F466" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -10240,6 +11640,9 @@
           <t>3798226</t>
         </is>
       </c>
+      <c r="F467" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -10261,6 +11664,9 @@
           <t>3798226</t>
         </is>
       </c>
+      <c r="F468" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -10282,6 +11688,9 @@
           <t>3798265</t>
         </is>
       </c>
+      <c r="F469" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -10303,6 +11712,9 @@
           <t>3798267</t>
         </is>
       </c>
+      <c r="F470" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -10324,6 +11736,9 @@
           <t>3798267</t>
         </is>
       </c>
+      <c r="F471" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -10345,6 +11760,9 @@
           <t>3798267</t>
         </is>
       </c>
+      <c r="F472" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -10366,6 +11784,9 @@
           <t>3798271</t>
         </is>
       </c>
+      <c r="F473" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -10387,6 +11808,9 @@
           <t>3798199</t>
         </is>
       </c>
+      <c r="F474" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -10408,6 +11832,9 @@
           <t>3798199</t>
         </is>
       </c>
+      <c r="F475" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -10429,6 +11856,9 @@
           <t>3798186</t>
         </is>
       </c>
+      <c r="F476" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -10450,6 +11880,9 @@
           <t>3798169</t>
         </is>
       </c>
+      <c r="F477" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -10471,6 +11904,9 @@
           <t>3798198</t>
         </is>
       </c>
+      <c r="F478" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -10492,6 +11928,9 @@
           <t>3798198</t>
         </is>
       </c>
+      <c r="F479" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -10513,6 +11952,9 @@
           <t>3798188</t>
         </is>
       </c>
+      <c r="F480" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -10534,6 +11976,9 @@
           <t>3798194</t>
         </is>
       </c>
+      <c r="F481" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -10555,6 +12000,9 @@
           <t>3798194</t>
         </is>
       </c>
+      <c r="F482" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -10576,6 +12024,9 @@
           <t>3798194</t>
         </is>
       </c>
+      <c r="F483" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -10597,6 +12048,9 @@
           <t>3798187</t>
         </is>
       </c>
+      <c r="F484" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -10618,6 +12072,9 @@
           <t>3798187</t>
         </is>
       </c>
+      <c r="F485" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -10639,6 +12096,9 @@
           <t>3798191</t>
         </is>
       </c>
+      <c r="F486" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -10660,6 +12120,9 @@
           <t>3798191</t>
         </is>
       </c>
+      <c r="F487" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -10681,6 +12144,9 @@
           <t>3798174</t>
         </is>
       </c>
+      <c r="F488" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -10702,6 +12168,9 @@
           <t>3798166</t>
         </is>
       </c>
+      <c r="F489" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -10723,6 +12192,9 @@
           <t>3798166</t>
         </is>
       </c>
+      <c r="F490" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -10744,6 +12216,9 @@
           <t>3798193</t>
         </is>
       </c>
+      <c r="F491" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -10765,6 +12240,9 @@
           <t>3798193</t>
         </is>
       </c>
+      <c r="F492" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -10786,6 +12264,9 @@
           <t>3798145</t>
         </is>
       </c>
+      <c r="F493" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -10807,6 +12288,9 @@
           <t>3798162</t>
         </is>
       </c>
+      <c r="F494" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -10828,6 +12312,9 @@
           <t>3798162</t>
         </is>
       </c>
+      <c r="F495" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -10849,6 +12336,9 @@
           <t>3798162</t>
         </is>
       </c>
+      <c r="F496" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -10870,6 +12360,9 @@
           <t>3798162</t>
         </is>
       </c>
+      <c r="F497" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -10891,6 +12384,9 @@
           <t>3798162</t>
         </is>
       </c>
+      <c r="F498" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -10912,6 +12408,9 @@
           <t>3798143</t>
         </is>
       </c>
+      <c r="F499" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -10933,6 +12432,9 @@
           <t>3798143</t>
         </is>
       </c>
+      <c r="F500" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -10954,6 +12456,9 @@
           <t>3798158</t>
         </is>
       </c>
+      <c r="F501" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -10975,6 +12480,9 @@
           <t>3798158</t>
         </is>
       </c>
+      <c r="F502" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -10996,6 +12504,9 @@
           <t>3798158</t>
         </is>
       </c>
+      <c r="F503" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -11017,6 +12528,9 @@
           <t>3798158</t>
         </is>
       </c>
+      <c r="F504" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -11038,6 +12552,9 @@
           <t>3798158</t>
         </is>
       </c>
+      <c r="F505" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -11059,6 +12576,9 @@
           <t>3798149</t>
         </is>
       </c>
+      <c r="F506" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -11080,6 +12600,9 @@
           <t>3798149</t>
         </is>
       </c>
+      <c r="F507" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -11101,6 +12624,9 @@
           <t>3798152</t>
         </is>
       </c>
+      <c r="F508" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -11122,6 +12648,9 @@
           <t>3798152</t>
         </is>
       </c>
+      <c r="F509" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -11143,6 +12672,9 @@
           <t>3798152</t>
         </is>
       </c>
+      <c r="F510" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -11164,6 +12696,9 @@
           <t>3798160</t>
         </is>
       </c>
+      <c r="F511" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -11185,6 +12720,9 @@
           <t>3798160</t>
         </is>
       </c>
+      <c r="F512" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -11206,6 +12744,9 @@
           <t>3798160</t>
         </is>
       </c>
+      <c r="F513" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -11227,6 +12768,9 @@
           <t>3798156</t>
         </is>
       </c>
+      <c r="F514" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -11248,6 +12792,9 @@
           <t>3798156</t>
         </is>
       </c>
+      <c r="F515" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -11269,6 +12816,9 @@
           <t>3798148</t>
         </is>
       </c>
+      <c r="F516" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -11290,6 +12840,9 @@
           <t>3798069</t>
         </is>
       </c>
+      <c r="F517" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -11311,6 +12864,9 @@
           <t>3798069</t>
         </is>
       </c>
+      <c r="F518" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -11332,6 +12888,9 @@
           <t>3798069</t>
         </is>
       </c>
+      <c r="F519" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -11353,6 +12912,9 @@
           <t>3798344</t>
         </is>
       </c>
+      <c r="F520" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -11374,6 +12936,9 @@
           <t>3798344</t>
         </is>
       </c>
+      <c r="F521" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -11395,6 +12960,9 @@
           <t>3798344</t>
         </is>
       </c>
+      <c r="F522" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -11416,6 +12984,9 @@
           <t>3798121</t>
         </is>
       </c>
+      <c r="F523" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -11437,6 +13008,9 @@
           <t>3798120</t>
         </is>
       </c>
+      <c r="F524" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -11458,6 +13032,9 @@
           <t>3798120</t>
         </is>
       </c>
+      <c r="F525" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -11479,6 +13056,9 @@
           <t>3798120</t>
         </is>
       </c>
+      <c r="F526" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -11500,6 +13080,9 @@
           <t>3798073</t>
         </is>
       </c>
+      <c r="F527" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -11521,6 +13104,9 @@
           <t>3798073</t>
         </is>
       </c>
+      <c r="F528" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -11542,6 +13128,9 @@
           <t>3798073</t>
         </is>
       </c>
+      <c r="F529" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -11563,6 +13152,9 @@
           <t>3798080</t>
         </is>
       </c>
+      <c r="F530" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -11584,6 +13176,9 @@
           <t>3798080</t>
         </is>
       </c>
+      <c r="F531" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -11605,6 +13200,9 @@
           <t>3798086</t>
         </is>
       </c>
+      <c r="F532" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -11626,6 +13224,9 @@
           <t>3798086</t>
         </is>
       </c>
+      <c r="F533" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -11647,6 +13248,9 @@
           <t>3798086</t>
         </is>
       </c>
+      <c r="F534" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -11668,6 +13272,9 @@
           <t>3798400</t>
         </is>
       </c>
+      <c r="F535" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -11689,6 +13296,9 @@
           <t>3798400</t>
         </is>
       </c>
+      <c r="F536" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -11710,6 +13320,9 @@
           <t>3798400</t>
         </is>
       </c>
+      <c r="F537" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -11731,6 +13344,9 @@
           <t>3798400</t>
         </is>
       </c>
+      <c r="F538" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -11752,6 +13368,9 @@
           <t>3798400</t>
         </is>
       </c>
+      <c r="F539" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -11773,6 +13392,9 @@
           <t>3798077</t>
         </is>
       </c>
+      <c r="F540" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -11794,6 +13416,9 @@
           <t>3798077</t>
         </is>
       </c>
+      <c r="F541" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -11815,6 +13440,9 @@
           <t>3798077</t>
         </is>
       </c>
+      <c r="F542" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -11836,6 +13464,9 @@
           <t>3798063</t>
         </is>
       </c>
+      <c r="F543" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -11857,6 +13488,9 @@
           <t>3798088</t>
         </is>
       </c>
+      <c r="F544" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -11878,6 +13512,9 @@
           <t>3798088</t>
         </is>
       </c>
+      <c r="F545" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -11899,6 +13536,9 @@
           <t>3798088</t>
         </is>
       </c>
+      <c r="F546" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -11920,6 +13560,9 @@
           <t>3798061</t>
         </is>
       </c>
+      <c r="F547" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -11941,6 +13584,9 @@
           <t>3798061</t>
         </is>
       </c>
+      <c r="F548" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -11962,6 +13608,9 @@
           <t>3798061</t>
         </is>
       </c>
+      <c r="F549" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -11983,6 +13632,9 @@
           <t>3798082</t>
         </is>
       </c>
+      <c r="F550" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -12004,6 +13656,9 @@
           <t>3798082</t>
         </is>
       </c>
+      <c r="F551" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -12025,6 +13680,9 @@
           <t>3798124</t>
         </is>
       </c>
+      <c r="F552" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -12046,6 +13704,9 @@
           <t>3798124</t>
         </is>
       </c>
+      <c r="F553" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -12067,6 +13728,9 @@
           <t>3798124</t>
         </is>
       </c>
+      <c r="F554" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -12088,6 +13752,9 @@
           <t>3798124</t>
         </is>
       </c>
+      <c r="F555" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -12109,6 +13776,9 @@
           <t>3798114</t>
         </is>
       </c>
+      <c r="F556" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -12130,6 +13800,9 @@
           <t>3798114</t>
         </is>
       </c>
+      <c r="F557" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -12151,6 +13824,9 @@
           <t>3798114</t>
         </is>
       </c>
+      <c r="F558" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -12172,6 +13848,9 @@
           <t>3798083</t>
         </is>
       </c>
+      <c r="F559" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -12193,6 +13872,9 @@
           <t>3798083</t>
         </is>
       </c>
+      <c r="F560" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -12214,6 +13896,9 @@
           <t>3798083</t>
         </is>
       </c>
+      <c r="F561" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -12235,6 +13920,9 @@
           <t>3798107</t>
         </is>
       </c>
+      <c r="F562" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -12256,6 +13944,9 @@
           <t>3798070</t>
         </is>
       </c>
+      <c r="F563" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -12277,6 +13968,9 @@
           <t>3798070</t>
         </is>
       </c>
+      <c r="F564" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -12298,6 +13992,9 @@
           <t>3798122</t>
         </is>
       </c>
+      <c r="F565" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -12319,6 +14016,9 @@
           <t>3798122</t>
         </is>
       </c>
+      <c r="F566" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -12340,6 +14040,9 @@
           <t>3798122</t>
         </is>
       </c>
+      <c r="F567" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -12361,6 +14064,9 @@
           <t>3798064</t>
         </is>
       </c>
+      <c r="F568" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -12382,6 +14088,9 @@
           <t>3798064</t>
         </is>
       </c>
+      <c r="F569" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -12403,6 +14112,9 @@
           <t>3798064</t>
         </is>
       </c>
+      <c r="F570" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -12424,6 +14136,9 @@
           <t>3798127</t>
         </is>
       </c>
+      <c r="F571" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -12445,6 +14160,9 @@
           <t>3798066</t>
         </is>
       </c>
+      <c r="F572" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -12466,6 +14184,9 @@
           <t>3798066</t>
         </is>
       </c>
+      <c r="F573" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -12487,6 +14208,9 @@
           <t>3798092</t>
         </is>
       </c>
+      <c r="F574" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -12508,6 +14232,9 @@
           <t>3798092</t>
         </is>
       </c>
+      <c r="F575" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -12529,6 +14256,9 @@
           <t>3798092</t>
         </is>
       </c>
+      <c r="F576" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -12550,6 +14280,9 @@
           <t>3798264</t>
         </is>
       </c>
+      <c r="F577" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -12571,6 +14304,9 @@
           <t>3798264</t>
         </is>
       </c>
+      <c r="F578" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -12592,6 +14328,9 @@
           <t>3798264</t>
         </is>
       </c>
+      <c r="F579" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -12613,6 +14352,9 @@
           <t>3798264</t>
         </is>
       </c>
+      <c r="F580" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -12634,6 +14376,9 @@
           <t>3798264</t>
         </is>
       </c>
+      <c r="F581" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -12655,6 +14400,9 @@
           <t>3798305</t>
         </is>
       </c>
+      <c r="F582" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -12676,6 +14424,9 @@
           <t>3798305</t>
         </is>
       </c>
+      <c r="F583" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -12697,6 +14448,9 @@
           <t>3798305</t>
         </is>
       </c>
+      <c r="F584" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -12718,6 +14472,9 @@
           <t>3798305</t>
         </is>
       </c>
+      <c r="F585" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -12739,6 +14496,9 @@
           <t>3798302</t>
         </is>
       </c>
+      <c r="F586" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -12760,6 +14520,9 @@
           <t>3798302</t>
         </is>
       </c>
+      <c r="F587" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -12781,6 +14544,9 @@
           <t>3798129</t>
         </is>
       </c>
+      <c r="F588" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -12802,6 +14568,9 @@
           <t>3798129</t>
         </is>
       </c>
+      <c r="F589" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -12823,6 +14592,9 @@
           <t>3798129</t>
         </is>
       </c>
+      <c r="F590" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -12844,6 +14616,9 @@
           <t>3798129</t>
         </is>
       </c>
+      <c r="F591" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -12865,6 +14640,9 @@
           <t>3798197</t>
         </is>
       </c>
+      <c r="F592" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -12886,6 +14664,9 @@
           <t>3798197</t>
         </is>
       </c>
+      <c r="F593" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -12907,6 +14688,9 @@
           <t>3798197</t>
         </is>
       </c>
+      <c r="F594" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -12928,6 +14712,9 @@
           <t>3798303</t>
         </is>
       </c>
+      <c r="F595" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -12949,6 +14736,9 @@
           <t>3798201</t>
         </is>
       </c>
+      <c r="F596" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -12970,6 +14760,9 @@
           <t>3798201</t>
         </is>
       </c>
+      <c r="F597" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -12991,6 +14784,9 @@
           <t>3798403</t>
         </is>
       </c>
+      <c r="F598" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -13012,6 +14808,9 @@
           <t>3798403</t>
         </is>
       </c>
+      <c r="F599" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -13033,6 +14832,9 @@
           <t>3798403</t>
         </is>
       </c>
+      <c r="F600" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -13054,6 +14856,9 @@
           <t>3798403</t>
         </is>
       </c>
+      <c r="F601" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -13075,6 +14880,9 @@
           <t>3798278</t>
         </is>
       </c>
+      <c r="F602" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -13096,6 +14904,9 @@
           <t>3798278</t>
         </is>
       </c>
+      <c r="F603" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -13117,6 +14928,9 @@
           <t>3798278</t>
         </is>
       </c>
+      <c r="F604" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -13138,6 +14952,9 @@
           <t>3798278</t>
         </is>
       </c>
+      <c r="F605" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -13159,6 +14976,9 @@
           <t>3798278</t>
         </is>
       </c>
+      <c r="F606" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -13180,6 +15000,9 @@
           <t>3798278</t>
         </is>
       </c>
+      <c r="F607" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -13201,6 +15024,9 @@
           <t>3798239</t>
         </is>
       </c>
+      <c r="F608" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -13222,6 +15048,9 @@
           <t>3798239</t>
         </is>
       </c>
+      <c r="F609" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -13243,6 +15072,9 @@
           <t>3798401</t>
         </is>
       </c>
+      <c r="F610" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -13264,6 +15096,9 @@
           <t>3798071</t>
         </is>
       </c>
+      <c r="F611" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -13285,6 +15120,9 @@
           <t>3798245</t>
         </is>
       </c>
+      <c r="F612" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -13306,6 +15144,9 @@
           <t>3798245</t>
         </is>
       </c>
+      <c r="F613" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -13327,6 +15168,9 @@
           <t>3798433</t>
         </is>
       </c>
+      <c r="F614" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -13348,6 +15192,9 @@
           <t>3798128</t>
         </is>
       </c>
+      <c r="F615" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -13369,6 +15216,9 @@
           <t>3798128</t>
         </is>
       </c>
+      <c r="F616" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -13390,6 +15240,9 @@
           <t>3798074</t>
         </is>
       </c>
+      <c r="F617" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -13411,6 +15264,9 @@
           <t>3798339</t>
         </is>
       </c>
+      <c r="F618" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -13432,6 +15288,9 @@
           <t>3798339</t>
         </is>
       </c>
+      <c r="F619" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -13453,6 +15312,9 @@
           <t>3798339</t>
         </is>
       </c>
+      <c r="F620" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -13474,6 +15336,9 @@
           <t>3798425</t>
         </is>
       </c>
+      <c r="F621" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -13495,6 +15360,9 @@
           <t>3798171</t>
         </is>
       </c>
+      <c r="F622" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -13516,6 +15384,9 @@
           <t>3798171</t>
         </is>
       </c>
+      <c r="F623" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -13537,6 +15408,9 @@
           <t>3832135</t>
         </is>
       </c>
+      <c r="F624" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -13558,6 +15432,9 @@
           <t>3832135</t>
         </is>
       </c>
+      <c r="F625" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -13579,6 +15456,9 @@
           <t>3832135</t>
         </is>
       </c>
+      <c r="F626" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -13600,6 +15480,9 @@
           <t>3798147</t>
         </is>
       </c>
+      <c r="F627" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
@@ -13621,6 +15504,9 @@
           <t>3798147</t>
         </is>
       </c>
+      <c r="F628" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
@@ -13642,6 +15528,9 @@
           <t>3798147</t>
         </is>
       </c>
+      <c r="F629" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
@@ -13663,6 +15552,9 @@
           <t>3798147</t>
         </is>
       </c>
+      <c r="F630" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -13684,6 +15576,9 @@
           <t>3798147</t>
         </is>
       </c>
+      <c r="F631" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -13705,6 +15600,9 @@
           <t>3798243</t>
         </is>
       </c>
+      <c r="F632" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -13726,6 +15624,9 @@
           <t>3798243</t>
         </is>
       </c>
+      <c r="F633" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -13747,6 +15648,9 @@
           <t>3798232</t>
         </is>
       </c>
+      <c r="F634" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -13768,6 +15672,9 @@
           <t>3798232</t>
         </is>
       </c>
+      <c r="F635" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -13789,6 +15696,9 @@
           <t>3798232</t>
         </is>
       </c>
+      <c r="F636" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -13810,6 +15720,9 @@
           <t>3798279</t>
         </is>
       </c>
+      <c r="F637" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
@@ -13831,6 +15744,9 @@
           <t>3798279</t>
         </is>
       </c>
+      <c r="F638" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
@@ -13852,6 +15768,9 @@
           <t>3798279</t>
         </is>
       </c>
+      <c r="F639" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -13873,6 +15792,9 @@
           <t>3798394</t>
         </is>
       </c>
+      <c r="F640" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
@@ -13894,6 +15816,9 @@
           <t>3798394</t>
         </is>
       </c>
+      <c r="F641" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -13915,6 +15840,9 @@
           <t>3798394</t>
         </is>
       </c>
+      <c r="F642" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
@@ -13936,6 +15864,9 @@
           <t>3798363</t>
         </is>
       </c>
+      <c r="F643" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -13957,6 +15888,9 @@
           <t>3798300</t>
         </is>
       </c>
+      <c r="F644" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
@@ -13978,6 +15912,9 @@
           <t>3798300</t>
         </is>
       </c>
+      <c r="F645" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
@@ -13999,6 +15936,9 @@
           <t>3798300</t>
         </is>
       </c>
+      <c r="F646" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -14020,6 +15960,9 @@
           <t>3798078</t>
         </is>
       </c>
+      <c r="F647" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -14041,6 +15984,9 @@
           <t>3798078</t>
         </is>
       </c>
+      <c r="F648" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
@@ -14062,6 +16008,9 @@
           <t>3798078</t>
         </is>
       </c>
+      <c r="F649" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
@@ -14083,6 +16032,9 @@
           <t>3798297</t>
         </is>
       </c>
+      <c r="F650" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -14104,6 +16056,9 @@
           <t>3798297</t>
         </is>
       </c>
+      <c r="F651" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
@@ -14125,6 +16080,9 @@
           <t>3798368</t>
         </is>
       </c>
+      <c r="F652" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
@@ -14146,6 +16104,9 @@
           <t>3798096</t>
         </is>
       </c>
+      <c r="F653" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
@@ -14167,6 +16128,9 @@
           <t>3798229</t>
         </is>
       </c>
+      <c r="F654" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
@@ -14188,6 +16152,9 @@
           <t>3798398</t>
         </is>
       </c>
+      <c r="F655" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
@@ -14209,6 +16176,9 @@
           <t>3798218</t>
         </is>
       </c>
+      <c r="F656" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -14230,6 +16200,9 @@
           <t>3798309</t>
         </is>
       </c>
+      <c r="F657" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
@@ -14251,6 +16224,9 @@
           <t>3798428</t>
         </is>
       </c>
+      <c r="F658" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
@@ -14272,6 +16248,9 @@
           <t>3798095</t>
         </is>
       </c>
+      <c r="F659" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
@@ -14293,6 +16272,9 @@
           <t>3798095</t>
         </is>
       </c>
+      <c r="F660" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -14314,6 +16296,9 @@
           <t>3798337</t>
         </is>
       </c>
+      <c r="F661" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
@@ -14335,6 +16320,9 @@
           <t>3798337</t>
         </is>
       </c>
+      <c r="F662" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
@@ -14356,6 +16344,9 @@
           <t>3798337</t>
         </is>
       </c>
+      <c r="F663" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
@@ -14377,6 +16368,9 @@
           <t>3798123</t>
         </is>
       </c>
+      <c r="F664" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
@@ -14398,6 +16392,9 @@
           <t>3798123</t>
         </is>
       </c>
+      <c r="F665" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
@@ -14419,6 +16416,9 @@
           <t>3798335</t>
         </is>
       </c>
+      <c r="F666" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
@@ -14440,6 +16440,9 @@
           <t>3798358</t>
         </is>
       </c>
+      <c r="F667" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
@@ -14461,6 +16464,9 @@
           <t>3798116</t>
         </is>
       </c>
+      <c r="F668" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -14482,6 +16488,9 @@
           <t>3798116</t>
         </is>
       </c>
+      <c r="F669" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
@@ -14503,6 +16512,9 @@
           <t>3798434</t>
         </is>
       </c>
+      <c r="F670" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
@@ -14524,6 +16536,9 @@
           <t>3798434</t>
         </is>
       </c>
+      <c r="F671" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
@@ -14545,6 +16560,9 @@
           <t>3798098</t>
         </is>
       </c>
+      <c r="F672" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
@@ -14566,6 +16584,9 @@
           <t>3798098</t>
         </is>
       </c>
+      <c r="F673" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
@@ -14587,6 +16608,9 @@
           <t>3798312</t>
         </is>
       </c>
+      <c r="F674" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
@@ -14608,6 +16632,9 @@
           <t>3798312</t>
         </is>
       </c>
+      <c r="F675" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
@@ -14629,6 +16656,9 @@
           <t>3798312</t>
         </is>
       </c>
+      <c r="F676" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
@@ -14650,6 +16680,9 @@
           <t>3798132</t>
         </is>
       </c>
+      <c r="F677" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
@@ -14671,6 +16704,9 @@
           <t>3798371</t>
         </is>
       </c>
+      <c r="F678" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
@@ -14692,6 +16728,9 @@
           <t>3798371</t>
         </is>
       </c>
+      <c r="F679" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -14713,6 +16752,9 @@
           <t>3798371</t>
         </is>
       </c>
+      <c r="F680" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
@@ -14734,6 +16776,9 @@
           <t>3798371</t>
         </is>
       </c>
+      <c r="F681" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
@@ -14755,6 +16800,9 @@
           <t>3798090</t>
         </is>
       </c>
+      <c r="F682" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
@@ -14776,6 +16824,9 @@
           <t>3798404</t>
         </is>
       </c>
+      <c r="F683" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
@@ -14797,6 +16848,9 @@
           <t>3798404</t>
         </is>
       </c>
+      <c r="F684" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
@@ -14818,6 +16872,9 @@
           <t>3798404</t>
         </is>
       </c>
+      <c r="F685" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
@@ -14839,6 +16896,9 @@
           <t>3798404</t>
         </is>
       </c>
+      <c r="F686" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
@@ -14860,6 +16920,9 @@
           <t>3798404</t>
         </is>
       </c>
+      <c r="F687" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
@@ -14881,6 +16944,9 @@
           <t>3798404</t>
         </is>
       </c>
+      <c r="F688" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
@@ -14902,6 +16968,9 @@
           <t>3798288</t>
         </is>
       </c>
+      <c r="F689" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
@@ -14923,6 +16992,9 @@
           <t>3798248</t>
         </is>
       </c>
+      <c r="F690" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
@@ -14944,6 +17016,9 @@
           <t>3798248</t>
         </is>
       </c>
+      <c r="F691" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
@@ -14965,6 +17040,9 @@
           <t>3798248</t>
         </is>
       </c>
+      <c r="F692" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
@@ -14986,6 +17064,9 @@
           <t>3798319</t>
         </is>
       </c>
+      <c r="F693" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
@@ -15007,6 +17088,9 @@
           <t>3798319</t>
         </is>
       </c>
+      <c r="F694" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
@@ -15028,6 +17112,9 @@
           <t>3798208</t>
         </is>
       </c>
+      <c r="F695" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
@@ -15049,6 +17136,9 @@
           <t>3798208</t>
         </is>
       </c>
+      <c r="F696" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
@@ -15070,6 +17160,9 @@
           <t>3798208</t>
         </is>
       </c>
+      <c r="F697" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
@@ -15091,6 +17184,9 @@
           <t>3798176</t>
         </is>
       </c>
+      <c r="F698" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
@@ -15112,6 +17208,9 @@
           <t>3798176</t>
         </is>
       </c>
+      <c r="F699" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
@@ -15133,6 +17232,9 @@
           <t>3798176</t>
         </is>
       </c>
+      <c r="F700" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
@@ -15154,6 +17256,9 @@
           <t>3798256</t>
         </is>
       </c>
+      <c r="F701" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
@@ -15175,6 +17280,9 @@
           <t>3798256</t>
         </is>
       </c>
+      <c r="F702" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
@@ -15196,6 +17304,9 @@
           <t>3798256</t>
         </is>
       </c>
+      <c r="F703" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
@@ -15217,6 +17328,9 @@
           <t>3798252</t>
         </is>
       </c>
+      <c r="F704" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
@@ -15238,6 +17352,9 @@
           <t>3798242</t>
         </is>
       </c>
+      <c r="F705" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
@@ -15259,6 +17376,9 @@
           <t>3798242</t>
         </is>
       </c>
+      <c r="F706" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
@@ -15280,6 +17400,9 @@
           <t>3798348</t>
         </is>
       </c>
+      <c r="F707" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
@@ -15301,6 +17424,9 @@
           <t>3798348</t>
         </is>
       </c>
+      <c r="F708" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
@@ -15322,6 +17448,9 @@
           <t>3798348</t>
         </is>
       </c>
+      <c r="F709" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
@@ -15343,6 +17472,9 @@
           <t>3798192</t>
         </is>
       </c>
+      <c r="F710" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
@@ -15364,6 +17496,9 @@
           <t>3798192</t>
         </is>
       </c>
+      <c r="F711" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
@@ -15385,6 +17520,9 @@
           <t>3798192</t>
         </is>
       </c>
+      <c r="F712" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
@@ -15406,6 +17544,9 @@
           <t>3798355</t>
         </is>
       </c>
+      <c r="F713" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
@@ -15427,6 +17568,9 @@
           <t>3798355</t>
         </is>
       </c>
+      <c r="F714" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
@@ -15448,6 +17592,9 @@
           <t>3798259</t>
         </is>
       </c>
+      <c r="F715" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
@@ -15469,6 +17616,9 @@
           <t>3798259</t>
         </is>
       </c>
+      <c r="F716" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
@@ -15490,6 +17640,9 @@
           <t>3798259</t>
         </is>
       </c>
+      <c r="F717" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
@@ -15511,6 +17664,9 @@
           <t>3798259</t>
         </is>
       </c>
+      <c r="F718" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
@@ -15532,6 +17688,9 @@
           <t>3798259</t>
         </is>
       </c>
+      <c r="F719" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
@@ -15553,6 +17712,9 @@
           <t>3798347</t>
         </is>
       </c>
+      <c r="F720" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
@@ -15574,6 +17736,9 @@
           <t>3798345</t>
         </is>
       </c>
+      <c r="F721" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
@@ -15595,6 +17760,9 @@
           <t>3798345</t>
         </is>
       </c>
+      <c r="F722" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
@@ -15616,6 +17784,9 @@
           <t>3798345</t>
         </is>
       </c>
+      <c r="F723" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
@@ -15637,6 +17808,9 @@
           <t>3798126</t>
         </is>
       </c>
+      <c r="F724" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
@@ -15658,6 +17832,9 @@
           <t>3798388</t>
         </is>
       </c>
+      <c r="F725" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
@@ -15679,6 +17856,9 @@
           <t>3798388</t>
         </is>
       </c>
+      <c r="F726" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
@@ -15700,6 +17880,9 @@
           <t>3798388</t>
         </is>
       </c>
+      <c r="F727" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
@@ -15721,6 +17904,9 @@
           <t>3798388</t>
         </is>
       </c>
+      <c r="F728" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
@@ -15742,6 +17928,9 @@
           <t>3798388</t>
         </is>
       </c>
+      <c r="F729" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
@@ -15763,6 +17952,9 @@
           <t>3798221</t>
         </is>
       </c>
+      <c r="F730" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
@@ -15784,6 +17976,9 @@
           <t>3798109</t>
         </is>
       </c>
+      <c r="F731" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
@@ -15805,6 +18000,9 @@
           <t>3798109</t>
         </is>
       </c>
+      <c r="F732" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
@@ -15826,6 +18024,9 @@
           <t>3798360</t>
         </is>
       </c>
+      <c r="F733" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
@@ -15847,6 +18048,9 @@
           <t>3798360</t>
         </is>
       </c>
+      <c r="F734" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
@@ -15868,6 +18072,9 @@
           <t>3798260</t>
         </is>
       </c>
+      <c r="F735" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
@@ -15889,6 +18096,9 @@
           <t>3798260</t>
         </is>
       </c>
+      <c r="F736" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
@@ -15910,6 +18120,9 @@
           <t>3798196</t>
         </is>
       </c>
+      <c r="F737" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
@@ -15931,6 +18144,9 @@
           <t>3798196</t>
         </is>
       </c>
+      <c r="F738" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
@@ -15952,6 +18168,9 @@
           <t>3798296</t>
         </is>
       </c>
+      <c r="F739" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
@@ -15973,6 +18192,9 @@
           <t>3798390</t>
         </is>
       </c>
+      <c r="F740" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
@@ -15994,6 +18216,9 @@
           <t>3798180</t>
         </is>
       </c>
+      <c r="F741" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
@@ -16015,6 +18240,9 @@
           <t>3798180</t>
         </is>
       </c>
+      <c r="F742" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
@@ -16036,6 +18264,9 @@
           <t>3798180</t>
         </is>
       </c>
+      <c r="F743" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
@@ -16057,6 +18288,9 @@
           <t>3798396</t>
         </is>
       </c>
+      <c r="F744" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
@@ -16078,6 +18312,9 @@
           <t>3798224</t>
         </is>
       </c>
+      <c r="F745" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
@@ -16099,6 +18336,9 @@
           <t>3798224</t>
         </is>
       </c>
+      <c r="F746" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
@@ -16120,6 +18360,9 @@
           <t>3798224</t>
         </is>
       </c>
+      <c r="F747" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
@@ -16141,6 +18384,9 @@
           <t>3798224</t>
         </is>
       </c>
+      <c r="F748" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
@@ -16162,6 +18408,9 @@
           <t>3798307</t>
         </is>
       </c>
+      <c r="F749" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
@@ -16183,6 +18432,9 @@
           <t>3798307</t>
         </is>
       </c>
+      <c r="F750" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
@@ -16204,6 +18456,9 @@
           <t>3798307</t>
         </is>
       </c>
+      <c r="F751" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
@@ -16225,6 +18480,9 @@
           <t>3798307</t>
         </is>
       </c>
+      <c r="F752" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
@@ -16246,6 +18504,9 @@
           <t>3798308</t>
         </is>
       </c>
+      <c r="F753" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
@@ -16267,6 +18528,9 @@
           <t>3798308</t>
         </is>
       </c>
+      <c r="F754" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
@@ -16288,6 +18552,9 @@
           <t>3798315</t>
         </is>
       </c>
+      <c r="F755" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
@@ -16309,6 +18576,9 @@
           <t>3798315</t>
         </is>
       </c>
+      <c r="F756" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
@@ -16330,6 +18600,9 @@
           <t>3798315</t>
         </is>
       </c>
+      <c r="F757" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
@@ -16351,6 +18624,9 @@
           <t>3798130</t>
         </is>
       </c>
+      <c r="F758" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
@@ -16372,6 +18648,9 @@
           <t>3798130</t>
         </is>
       </c>
+      <c r="F759" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
@@ -16393,6 +18672,9 @@
           <t>3798181</t>
         </is>
       </c>
+      <c r="F760" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
@@ -16414,6 +18696,9 @@
           <t>3798181</t>
         </is>
       </c>
+      <c r="F761" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
@@ -16435,6 +18720,9 @@
           <t>3798181</t>
         </is>
       </c>
+      <c r="F762" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
@@ -16456,6 +18744,9 @@
           <t>3798181</t>
         </is>
       </c>
+      <c r="F763" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
@@ -16477,6 +18768,9 @@
           <t>3798323</t>
         </is>
       </c>
+      <c r="F764" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
@@ -16498,6 +18792,9 @@
           <t>3798323</t>
         </is>
       </c>
+      <c r="F765" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
@@ -16519,6 +18816,9 @@
           <t>3798099</t>
         </is>
       </c>
+      <c r="F766" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
@@ -16540,6 +18840,9 @@
           <t>3798257</t>
         </is>
       </c>
+      <c r="F767" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
@@ -16561,6 +18864,9 @@
           <t>3798184</t>
         </is>
       </c>
+      <c r="F768" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="1" t="n">
@@ -16582,6 +18888,9 @@
           <t>3798301</t>
         </is>
       </c>
+      <c r="F769" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" s="1" t="n">
@@ -16603,6 +18912,9 @@
           <t>3798301</t>
         </is>
       </c>
+      <c r="F770" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="1" t="n">
@@ -16624,6 +18936,9 @@
           <t>3798301</t>
         </is>
       </c>
+      <c r="F771" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="1" t="n">
@@ -16645,6 +18960,9 @@
           <t>3798087</t>
         </is>
       </c>
+      <c r="F772" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="1" t="n">
@@ -16666,6 +18984,9 @@
           <t>3798087</t>
         </is>
       </c>
+      <c r="F773" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
@@ -16687,6 +19008,9 @@
           <t>3798306</t>
         </is>
       </c>
+      <c r="F774" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="1" t="n">
@@ -16708,6 +19032,9 @@
           <t>3798306</t>
         </is>
       </c>
+      <c r="F775" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="1" t="n">
@@ -16729,6 +19056,9 @@
           <t>3798153</t>
         </is>
       </c>
+      <c r="F776" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" s="1" t="n">
@@ -16750,6 +19080,9 @@
           <t>3798153</t>
         </is>
       </c>
+      <c r="F777" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" s="1" t="n">
@@ -16771,6 +19104,9 @@
           <t>3798153</t>
         </is>
       </c>
+      <c r="F778" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" s="1" t="n">
@@ -16792,6 +19128,9 @@
           <t>3798153</t>
         </is>
       </c>
+      <c r="F779" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="1" t="n">
@@ -16812,6 +19151,9 @@
         <is>
           <t>3798153</t>
         </is>
+      </c>
+      <c r="F780" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
